--- a/bsd-api-dms-order/template_order_v3.xlsx
+++ b/bsd-api-dms-order/template_order_v3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908B55D-FDF8-4CF6-A55D-C5C55204CE73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92903CD-7207-40BC-BBD7-390EBCA55F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AA$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Row</t>
   </si>
@@ -429,11 +429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -447,12 +447,12 @@
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="34.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="17" width="8.7109375" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" customWidth="1"/>
-    <col min="19" max="28" width="8.7109375" customWidth="1"/>
+    <col min="13" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" customWidth="1"/>
+    <col min="18" max="27" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,43 +502,40 @@
         <v>13</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -586,31 +583,28 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="S2" s="1">
         <v>7000</v>
       </c>
-      <c r="T2" s="1">
-        <v>7000</v>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -658,24 +652,21 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="S3" s="1">
         <v>7000</v>
       </c>
-      <c r="T3" s="1">
-        <v>7000</v>
+      <c r="T3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/bsd-api-dms-order/template_order_v3.xlsx
+++ b/bsd-api-dms-order/template_order_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\mono-dms-new\bsd-api-dms-order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92903CD-7207-40BC-BBD7-390EBCA55F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CDA4FE-CE41-45B6-8A36-D44D98F77FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Row</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>NO Barcode</t>
-  </si>
-  <si>
-    <t>2/2</t>
   </si>
   <si>
     <t>1/2</t>
@@ -138,34 +135,22 @@
 Kepulauan Bangka Belitung    </t>
   </si>
   <si>
-    <t>Subdist B</t>
-  </si>
-  <si>
     <t>INV/001</t>
   </si>
   <si>
-    <t>TRC002</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT MILK FULL CREAM 200 ML SPC PACK 4 PC</t>
-  </si>
-  <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>DIAMOND</t>
-  </si>
-  <si>
-    <t>TRC004</t>
-  </si>
-  <si>
-    <t>DIAMOND UHT MILK CHOCOLATE 200 ML SPC PACK 4 PCS</t>
-  </si>
-  <si>
     <t>Market ID</t>
   </si>
   <si>
     <t>Frontliner</t>
+  </si>
+  <si>
+    <t>SKU01</t>
+  </si>
+  <si>
+    <t>Item name</t>
   </si>
 </sst>
 </file>
@@ -429,11 +414,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -460,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -540,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
@@ -556,16 +541,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>25</v>
@@ -592,81 +577,15 @@
         <v>7000</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>3500</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>7000</v>
-      </c>
-      <c r="S3" s="1">
-        <v>7000</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
